--- a/data/trans_bre/P41E_2023_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P41E_2023_R-Provincia-trans_bre.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.5983003300123489</v>
+        <v>0.5983003300123488</v>
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.88844908613315</v>
+        <v>2.246033411042945</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-0.3696447336640738</v>
+        <v>-0.3696447336640731</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.1734438846220639</v>
+        <v>-0.1734438846220636</v>
       </c>
     </row>
     <row r="8">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.973309705950394</v>
+        <v>-4.764976062986563</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
     </row>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.660214144956445</v>
+        <v>2.527174742185646</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.5553776756156605</v>
+        <v>0.5553776756156592</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.04514817008744241</v>
+        <v>0.0451481700874423</v>
       </c>
     </row>
     <row r="11">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.919252910770685</v>
+        <v>-5.101438954387266</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.3699126358822458</v>
+        <v>-0.3447610069672478</v>
       </c>
     </row>
     <row r="12">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.109227786610401</v>
+        <v>6.537647054359878</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.6670188496372343</v>
+        <v>0.7331276688487355</v>
       </c>
     </row>
     <row r="13">
@@ -687,7 +687,7 @@
         <v>6.336298542465456</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>3.750728723737541</v>
+        <v>3.75072872373754</v>
       </c>
     </row>
     <row r="14">
@@ -698,10 +698,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.039616030391664</v>
+        <v>3.412146825357726</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.6870981532703071</v>
+        <v>0.8881309002105982</v>
       </c>
     </row>
     <row r="15">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.880619968947233</v>
+        <v>9.805626153096107</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13.54273646622528</v>
+        <v>15.25172002636094</v>
       </c>
     </row>
     <row r="16">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-5.995917218317696</v>
+        <v>-5.995917218317699</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>-0.7993632323912575</v>
+        <v>-0.7993632323912576</v>
       </c>
     </row>
     <row r="17">
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.76133652551997</v>
+        <v>-11.53864789411487</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.9641732854234861</v>
+        <v>-0.9595621928023983</v>
       </c>
     </row>
     <row r="18">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.959284797386201</v>
+        <v>-1.673972221632855</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>-0.1719809610752442</v>
+        <v>-0.2196323395435583</v>
       </c>
     </row>
     <row r="19">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.842838650334202</v>
+        <v>-2.7365206065809</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1857106004111818</v>
+        <v>-0.1650318479557538</v>
       </c>
     </row>
     <row r="21">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.33034272597721</v>
+        <v>9.708391316563144</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9544826822397369</v>
+        <v>0.9553200908365542</v>
       </c>
     </row>
     <row r="22">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.92263491099687</v>
+        <v>-1.721635165650884</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.7490604191875366</v>
+        <v>-0.7183038731122591</v>
       </c>
     </row>
     <row r="24">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.668675250256286</v>
+        <v>2.123668209247613</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>2.507073234210105</v>
+        <v>2.637312579798032</v>
       </c>
     </row>
     <row r="25">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.256912506146907</v>
+        <v>-1.374352722481795</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.03644493642844723</v>
+        <v>-0.04133197206470741</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>10.56651868169877</v>
+        <v>10.79558392662557</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3901136740686899</v>
+        <v>0.3942022235212287</v>
       </c>
     </row>
     <row r="28">
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>1.162960158566498</v>
+        <v>1.162960158566494</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>0.1034879711022325</v>
+        <v>0.1034879711022321</v>
       </c>
     </row>
     <row r="29">
@@ -928,10 +928,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.7472389232458587</v>
+        <v>-0.8477180388519899</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>-0.06009954855302318</v>
+        <v>-0.06860828462341262</v>
       </c>
     </row>
     <row r="30">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.174641892841581</v>
+        <v>3.276833513419368</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>0.3093585966400771</v>
+        <v>0.3121975571179396</v>
       </c>
     </row>
     <row r="31">
